--- a/ccMain/bin/Debug/水泥收样试验窗体设计.xlsx
+++ b/ccMain/bin/Debug/水泥收样试验窗体设计.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\Visual Studio 2017\Projects\ZrTBMCodeForTestItem\ccMain\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zsb\vs2017 projects\ZrTBMCodeForTestItem\ccMain\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25200" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="25800" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="96"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -509,7 +509,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0" shapeId="0">
+    <comment ref="J8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1186,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1743,7 +1743,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1790,7 +1790,7 @@
         <xdr:cNvPr id="14359" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1874,7 @@
         <xdr:cNvPr id="14378" name="图片 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1948,7 @@
         <xdr:cNvPr id="14379" name="图片 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4361,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -5187,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5217,223 +5217,217 @@
     </row>
     <row r="3" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
+      <c r="B3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34"/>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
-      <c r="B5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="B7" s="91"/>
+      <c r="B7" s="92" t="s">
+        <v>112</v>
+      </c>
       <c r="C7" s="91"/>
       <c r="D7" s="91"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="91"/>
+      <c r="G7" s="92" t="s">
+        <v>113</v>
+      </c>
       <c r="H7" s="91"/>
       <c r="I7" s="91"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="G8" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-    </row>
-    <row r="9" spans="1:12" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="31" t="s">
+    </row>
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C8" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D8" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G8" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H8" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J8" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K8" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L8" s="33" t="s">
         <v>124</v>
       </c>
     </row>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40">
+        <v>1</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40">
-        <v>1</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>125</v>
+      <c r="A10" s="41">
+        <v>2</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
-        <v>2</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="42"/>
+      <c r="L10" s="42"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="93"/>
     </row>
     <row r="14" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="93">
-        <v>123</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F14" s="93"/>
     </row>
     <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="93"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-    </row>
-    <row r="19" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+    </row>
+    <row r="18" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
         <v>148</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="5"/>
-    </row>
-    <row r="34" spans="5:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="33" spans="5:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ccMain/bin/Debug/水泥收样试验窗体设计.xlsx
+++ b/ccMain/bin/Debug/水泥收样试验窗体设计.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zsb\vs2017 projects\ZrTBMCodeForTestItem\ccMain\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zsb\vs2017 projects\ZrTBMCodeForTestItem\ccMain\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25800" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="26400" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="7" r:id="rId1"/>
     <sheet name="收样" sheetId="5" r:id="rId2"/>
     <sheet name="强度检验" sheetId="14" r:id="rId3"/>
     <sheet name="烧失量" sheetId="18" r:id="rId4"/>
+    <sheet name="强度检验 (2)" sheetId="19" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -599,8 +600,430 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>显示方式：yyyy-MM-dd HH:mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>显示方式：yyyy-MM-dd HH:mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>显示方式：yyyy-MM-dd HH:mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取 T_CementParamsNew表中的
+‘BreakIntenSity3’字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取 T_CementParamsNew表中的
+‘PressIntensity3’字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>显示方式：yyyy-MM-dd HH:mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取 T_CementParamsNew表中的
+‘BreakIntenSity7’字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取 T_CementParamsNew表中的
+‘PressIntensity7’字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>显示方式：yyyy-MM-dd HH:mm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取 T_CementParamsNew表中的
+‘BreakIntenSity28’字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>获取 T_CementParamsNew表中的
+‘PressIntensity28’字段</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="190">
   <si>
     <t>文档说明</t>
   </si>
@@ -1187,7 +1610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1371,6 +1794,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1469,7 +1897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1713,6 +2141,21 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,8 +2186,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1973,6 +2416,253 @@
         <a:xfrm>
           <a:off x="8734425" y="10890885"/>
           <a:ext cx="8115300" cy="1672590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60AECB09-19C2-45D9-99FD-8939F75D0C70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="8696325"/>
+          <a:ext cx="1638300" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198589E4-79A5-4B34-BAF0-6D2A95FA26C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="9144000"/>
+          <a:ext cx="7467600" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621A17BE-7047-4782-ABB3-D74F5D21B34F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="11068050"/>
+          <a:ext cx="8115300" cy="1657350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2368,14 +3058,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -2394,7 +3084,7 @@
       <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +3101,7 @@
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="85"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
@@ -2441,11 +3131,11 @@
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="23"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -4275,11 +4965,11 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B24" s="51"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C26" s="48"/>
@@ -4433,29 +5123,29 @@
       <c r="C7" s="60"/>
     </row>
     <row r="8" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="I8" s="87" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="I8" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="P8" s="87" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="P8" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
       <c r="U8" s="76"/>
     </row>
     <row r="9" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4491,36 +5181,36 @@
       <c r="U9" s="76"/>
     </row>
     <row r="10" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="I10" s="90" t="s">
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="I10" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90" t="s">
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="P10" s="88" t="s">
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="P10" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88" t="s">
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
     </row>
     <row r="11" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="66"/>
@@ -5189,7 +5879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -5240,30 +5930,30 @@
     </row>
     <row r="6" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="G7" s="92" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="G7" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
     </row>
     <row r="8" spans="1:12" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
@@ -5382,7 +6072,7 @@
       <c r="C13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
@@ -5391,7 +6081,7 @@
       <c r="C14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="93"/>
+      <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
@@ -5435,4 +6125,1035 @@
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="83" customWidth="1"/>
+    <col min="3" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="13.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="20.625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="13.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="13.625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="57"/>
+    </row>
+    <row r="3" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+    </row>
+    <row r="7" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="60"/>
+    </row>
+    <row r="8" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+    </row>
+    <row r="9" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="11" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="66"/>
+      <c r="C11" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="85"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="66"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+    </row>
+    <row r="19" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="66"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="71"/>
+    </row>
+    <row r="20" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="66"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="71"/>
+    </row>
+    <row r="21" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="66"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+    </row>
+    <row r="22" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="66"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+    </row>
+    <row r="23" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="63"/>
+    </row>
+    <row r="24" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="71"/>
+      <c r="E24" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="63"/>
+    </row>
+    <row r="25" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="54"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
+    </row>
+    <row r="28" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="67"/>
+      <c r="C29" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="54"/>
+    </row>
+    <row r="31" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+    </row>
+    <row r="32" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="54"/>
+    </row>
+    <row r="33" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="86"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="54"/>
+    </row>
+    <row r="34" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="72"/>
+      <c r="E34" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="54"/>
+    </row>
+    <row r="35" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="54"/>
+    </row>
+    <row r="36" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="86"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+    </row>
+    <row r="37" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="86"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="72"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="54"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+    </row>
+    <row r="38" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="86"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="72"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+    </row>
+    <row r="39" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
+    </row>
+    <row r="40" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="68"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54"/>
+    </row>
+    <row r="41" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="65"/>
+      <c r="E41" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54"/>
+    </row>
+    <row r="42" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="65"/>
+      <c r="E42" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="65"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="54"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="54"/>
+    </row>
+    <row r="43" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="54"/>
+    </row>
+    <row r="44" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="76"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="54"/>
+    </row>
+    <row r="45" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="54"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="54"/>
+    </row>
+    <row r="46" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
+    </row>
+    <row r="47" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="78"/>
+      <c r="C47" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="54"/>
+    </row>
+    <row r="48" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="54"/>
+    </row>
+    <row r="49" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="54"/>
+    </row>
+    <row r="50" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+    </row>
+    <row r="51" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="84"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
+    </row>
+    <row r="52" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="82"/>
+      <c r="E52" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="54"/>
+    </row>
+    <row r="53" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="82"/>
+      <c r="E53" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" s="53"/>
+      <c r="J53" s="54"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="54"/>
+    </row>
+    <row r="54" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="84"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="54"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="54"/>
+    </row>
+    <row r="55" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="84"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="76"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="54"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="54"/>
+    </row>
+    <row r="56" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="84"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56" s="76"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="54"/>
+    </row>
+    <row r="57" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="54"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
+    </row>
+    <row r="58" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="80"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="54"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="54"/>
+    </row>
+    <row r="59" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="76"/>
+      <c r="E59" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="76"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="54"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="54"/>
+    </row>
+    <row r="60" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="76"/>
+      <c r="E60" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="G60" s="76"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="54"/>
+    </row>
+    <row r="61" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="54"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="54"/>
+    </row>
+    <row r="63" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="46"/>
+    </row>
+    <row r="64" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="70" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I75" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/ccMain/bin/Debug/水泥收样试验窗体设计.xlsx
+++ b/ccMain/bin/Debug/水泥收样试验窗体设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zsb\vs2017 projects\ZrTBMCodeForTestItem\ccMain\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zsb\vs2017 projects\201701+\ZrTBMCodeForTestItem\ccMain\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="26400" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="27600" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="7" r:id="rId1"/>
@@ -634,7 +634,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,7 +648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -662,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -676,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -748,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -762,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -776,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -790,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0">
+    <comment ref="G39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -804,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -818,7 +818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -833,7 +833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0">
+    <comment ref="E48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -862,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -876,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0" shapeId="0">
+    <comment ref="E51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -904,7 +904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0" shapeId="0">
+    <comment ref="D57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0" shapeId="0">
+    <comment ref="G57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -932,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0" shapeId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -946,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B63" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -961,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0">
+    <comment ref="E65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0">
+    <comment ref="E66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -990,7 +990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1004,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="0" shapeId="0">
+    <comment ref="E69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="191">
   <si>
     <t>文档说明</t>
   </si>
@@ -1604,6 +1604,9 @@
   </si>
   <si>
     <t>抗压强度28d判定结果</t>
+  </si>
+  <si>
+    <t>↓</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,6 +2159,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2185,17 +2194,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
@@ -2466,13 +2500,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2550,13 +2584,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2624,13 +2658,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3058,14 +3092,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -3084,7 +3118,7 @@
       <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
@@ -3101,7 +3135,7 @@
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="90"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
@@ -3131,11 +3165,11 @@
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="23"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -4965,11 +4999,11 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B24" s="51"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C26" s="48"/>
@@ -5123,29 +5157,29 @@
       <c r="C7" s="60"/>
     </row>
     <row r="8" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="I8" s="92" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="I8" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="P8" s="92" t="s">
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="P8" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
       <c r="U8" s="76"/>
     </row>
     <row r="9" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5181,36 +5215,36 @@
       <c r="U9" s="76"/>
     </row>
     <row r="10" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="I10" s="95" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="I10" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95" t="s">
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="P10" s="93" t="s">
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="P10" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93" t="s">
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
     </row>
     <row r="11" spans="2:21" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="66"/>
@@ -5930,30 +5964,30 @@
     </row>
     <row r="6" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="G7" s="97" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="G7" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
     </row>
     <row r="8" spans="1:12" s="30" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39"/>
@@ -6129,10 +6163,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6155,11 +6189,11 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="55" t="s">
         <v>22</v>
       </c>
@@ -6168,7 +6202,7 @@
       </c>
       <c r="D2" s="57"/>
     </row>
-    <row r="3" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="55" t="s">
         <v>23</v>
       </c>
@@ -6176,7 +6210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="55" t="s">
         <v>24</v>
       </c>
@@ -6184,7 +6218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="55" t="s">
         <v>26</v>
       </c>
@@ -6192,962 +6226,1004 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-    </row>
-    <row r="7" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="60" t="s">
+    <row r="6" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="55"/>
+      <c r="C6" s="89"/>
+    </row>
+    <row r="7" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="55"/>
+      <c r="C7" s="89"/>
+    </row>
+    <row r="8" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="55"/>
+      <c r="C8" s="89"/>
+    </row>
+    <row r="9" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="55"/>
+      <c r="C9" s="89"/>
+    </row>
+    <row r="10" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="55"/>
+      <c r="C10" s="89"/>
+    </row>
+    <row r="11" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="55"/>
+      <c r="C11" s="89"/>
+    </row>
+    <row r="12" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="55"/>
+      <c r="C12" s="89"/>
+    </row>
+    <row r="13" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="55"/>
+      <c r="C13" s="89"/>
+    </row>
+    <row r="14" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="55"/>
+      <c r="C14" s="89"/>
+    </row>
+    <row r="15" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="55"/>
+      <c r="C15" s="89"/>
+    </row>
+    <row r="16" spans="2:4" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="60"/>
-    </row>
-    <row r="8" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="92" t="s">
+      <c r="C17" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-    </row>
-    <row r="9" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="85" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+    </row>
+    <row r="19" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C19" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="94" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94" t="s">
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-    </row>
-    <row r="11" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="66"/>
-      <c r="C11" s="74" t="s">
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+    </row>
+    <row r="21" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="66"/>
+      <c r="C21" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D21" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="74" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G21" s="74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="69" t="s">
+    <row r="22" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C22" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D22" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E22" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F22" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G22" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="69" t="s">
+    <row r="23" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C23" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D23" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E23" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F23" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G23" s="62" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="69" t="s">
+    <row r="24" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C24" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D24" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E24" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F24" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G24" s="62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="85"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="69" t="s">
+    <row r="25" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="85"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F25" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G25" s="62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="69" t="s">
+    <row r="26" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C26" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="69" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F26" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G26" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69" t="s">
+    <row r="27" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C27" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="69" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F27" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G27" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="66"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-    </row>
-    <row r="19" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="66"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="69" t="s">
+    <row r="28" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="66"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+    </row>
+    <row r="29" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="66"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F29" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="71"/>
-    </row>
-    <row r="20" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="66"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="69" t="s">
+      <c r="G29" s="71"/>
+    </row>
+    <row r="30" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="66"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F30" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="66"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-    </row>
-    <row r="22" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="66"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-    </row>
-    <row r="23" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="85" t="s">
+      <c r="G30" s="71"/>
+    </row>
+    <row r="31" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="66"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+    </row>
+    <row r="32" spans="2:7" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+    </row>
+    <row r="33" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C33" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="85" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F33" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="63"/>
-    </row>
-    <row r="24" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="85" t="s">
+      <c r="G33" s="63"/>
+    </row>
+    <row r="34" spans="2:13" s="58" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C34" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="85" t="s">
+      <c r="D34" s="71"/>
+      <c r="E34" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F34" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="63"/>
-    </row>
-    <row r="25" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="54"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54"/>
-    </row>
-    <row r="26" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
-    </row>
-    <row r="27" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
-    </row>
-    <row r="28" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
-    </row>
-    <row r="29" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="67"/>
-      <c r="C29" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="54"/>
-    </row>
-    <row r="30" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="54"/>
-    </row>
-    <row r="31" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-    </row>
-    <row r="32" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
-    </row>
-    <row r="33" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="86"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="54"/>
-    </row>
-    <row r="34" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="70" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="54"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="62" t="s">
-        <v>82</v>
-      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="54"/>
       <c r="I35" s="53"/>
       <c r="J35" s="54"/>
       <c r="L35" s="53"/>
       <c r="M35" s="54"/>
     </row>
     <row r="36" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="86"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="B36" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
       <c r="I36" s="53"/>
       <c r="J36" s="54"/>
       <c r="L36" s="53"/>
       <c r="M36" s="54"/>
     </row>
     <row r="37" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="86"/>
-      <c r="C37" s="65"/>
+      <c r="B37" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>31</v>
+      </c>
       <c r="D37" s="65"/>
-      <c r="E37" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="72"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
       <c r="I37" s="53"/>
       <c r="J37" s="54"/>
       <c r="L37" s="53"/>
       <c r="M37" s="54"/>
     </row>
     <row r="38" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="86"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="72"/>
+      <c r="B38" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
       <c r="I38" s="53"/>
       <c r="J38" s="54"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
     </row>
     <row r="39" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="68"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>33</v>
+      </c>
       <c r="I39" s="53"/>
       <c r="J39" s="54"/>
       <c r="L39" s="53"/>
       <c r="M39" s="54"/>
     </row>
     <row r="40" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="68"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
+      <c r="B40" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="62" t="s">
+        <v>43</v>
+      </c>
       <c r="I40" s="53"/>
       <c r="J40" s="54"/>
       <c r="L40" s="53"/>
       <c r="M40" s="54"/>
     </row>
     <row r="41" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="86" t="s">
-        <v>87</v>
+      <c r="B41" s="70" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="86" t="s">
-        <v>89</v>
+        <v>49</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>44</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="65"/>
+        <v>51</v>
+      </c>
+      <c r="G41" s="62" t="s">
+        <v>52</v>
+      </c>
       <c r="I41" s="53"/>
       <c r="J41" s="54"/>
       <c r="L41" s="53"/>
       <c r="M41" s="54"/>
     </row>
     <row r="42" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="86" t="s">
-        <v>93</v>
+      <c r="B42" s="70" t="s">
+        <v>53</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="65"/>
-      <c r="E42" s="86" t="s">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>53</v>
       </c>
       <c r="F42" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="65"/>
+        <v>60</v>
+      </c>
+      <c r="G42" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="I42" s="53"/>
       <c r="J42" s="54"/>
       <c r="L42" s="53"/>
       <c r="M42" s="54"/>
     </row>
     <row r="43" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>66</v>
+      </c>
       <c r="I43" s="53"/>
       <c r="J43" s="54"/>
       <c r="L43" s="53"/>
       <c r="M43" s="54"/>
     </row>
     <row r="44" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="76"/>
+      <c r="B44" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="72"/>
+      <c r="E44" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="I44" s="53"/>
       <c r="J44" s="54"/>
       <c r="L44" s="53"/>
       <c r="M44" s="54"/>
     </row>
     <row r="45" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="84" t="s">
-        <v>159</v>
+      <c r="B45" s="70" t="s">
+        <v>75</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
+        <v>80</v>
+      </c>
+      <c r="D45" s="72"/>
+      <c r="E45" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="62" t="s">
+        <v>82</v>
+      </c>
       <c r="I45" s="53"/>
       <c r="J45" s="54"/>
       <c r="L45" s="53"/>
       <c r="M45" s="54"/>
     </row>
     <row r="46" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
       <c r="I46" s="53"/>
       <c r="J46" s="54"/>
       <c r="L46" s="53"/>
       <c r="M46" s="54"/>
     </row>
     <row r="47" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="78"/>
-      <c r="C47" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="79" t="s">
-        <v>33</v>
-      </c>
+      <c r="B47" s="86"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="72"/>
       <c r="I47" s="53"/>
       <c r="J47" s="54"/>
       <c r="L47" s="53"/>
       <c r="M47" s="54"/>
     </row>
     <row r="48" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" s="81" t="s">
-        <v>35</v>
+      <c r="B48" s="86"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="70" t="s">
+        <v>75</v>
       </c>
       <c r="F48" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G48" s="62" t="s">
-        <v>167</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G48" s="72"/>
       <c r="I48" s="53"/>
       <c r="J48" s="54"/>
       <c r="L48" s="53"/>
       <c r="M48" s="54"/>
     </row>
-    <row r="49" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="62" t="s">
-        <v>171</v>
-      </c>
+    <row r="49" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="68"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
       <c r="I49" s="53"/>
       <c r="J49" s="54"/>
       <c r="L49" s="53"/>
       <c r="M49" s="54"/>
     </row>
-    <row r="50" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E50" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" s="62" t="s">
-        <v>175</v>
-      </c>
+    <row r="50" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="68"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
       <c r="I50" s="53"/>
       <c r="J50" s="54"/>
       <c r="L50" s="53"/>
       <c r="M50" s="54"/>
     </row>
-    <row r="51" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="84"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="81" t="s">
-        <v>62</v>
+    <row r="51" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="86" t="s">
+        <v>89</v>
       </c>
       <c r="F51" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="G51" s="62" t="s">
-        <v>177</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G51" s="65"/>
       <c r="I51" s="53"/>
       <c r="J51" s="54"/>
       <c r="L51" s="53"/>
       <c r="M51" s="54"/>
     </row>
-    <row r="52" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="81" t="s">
-        <v>67</v>
+    <row r="52" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="86" t="s">
+        <v>93</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="82"/>
-      <c r="E52" s="81" t="s">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" s="86" t="s">
+        <v>95</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="G52" s="62" t="s">
-        <v>180</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G52" s="65"/>
       <c r="I52" s="53"/>
       <c r="J52" s="54"/>
       <c r="L52" s="53"/>
       <c r="M52" s="54"/>
     </row>
-    <row r="53" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="62" t="s">
-        <v>183</v>
-      </c>
+    <row r="53" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="54"/>
       <c r="I53" s="53"/>
       <c r="J53" s="54"/>
       <c r="L53" s="53"/>
       <c r="M53" s="54"/>
     </row>
-    <row r="54" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="84"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="76"/>
+    <row r="54" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="88"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
       <c r="G54" s="76"/>
       <c r="I54" s="53"/>
       <c r="J54" s="54"/>
       <c r="L54" s="53"/>
       <c r="M54" s="54"/>
     </row>
-    <row r="55" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="84"/>
-      <c r="C55" s="76"/>
+    <row r="55" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>160</v>
+      </c>
       <c r="D55" s="76"/>
-      <c r="E55" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>184</v>
-      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
       <c r="G55" s="76"/>
       <c r="I55" s="53"/>
       <c r="J55" s="54"/>
       <c r="L55" s="53"/>
       <c r="M55" s="54"/>
     </row>
-    <row r="56" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="84"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="F56" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56" s="76"/>
+    <row r="56" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
       <c r="I56" s="53"/>
       <c r="J56" s="54"/>
       <c r="L56" s="53"/>
       <c r="M56" s="54"/>
     </row>
-    <row r="57" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="80"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
+    <row r="57" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="78"/>
+      <c r="C57" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>33</v>
+      </c>
       <c r="E57" s="80"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
+      <c r="F57" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="79" t="s">
+        <v>33</v>
+      </c>
       <c r="I57" s="53"/>
       <c r="J57" s="54"/>
       <c r="L57" s="53"/>
       <c r="M57" s="54"/>
     </row>
-    <row r="58" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="80"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
+    <row r="58" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="I58" s="53"/>
       <c r="J58" s="54"/>
       <c r="L58" s="53"/>
       <c r="M58" s="54"/>
     </row>
-    <row r="59" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="84" t="s">
-        <v>87</v>
+    <row r="59" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="84" t="s">
-        <v>89</v>
+        <v>168</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="F59" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="76"/>
+        <v>170</v>
+      </c>
+      <c r="G59" s="62" t="s">
+        <v>171</v>
+      </c>
       <c r="I59" s="53"/>
       <c r="J59" s="54"/>
       <c r="L59" s="53"/>
       <c r="M59" s="54"/>
     </row>
-    <row r="60" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="84" t="s">
-        <v>93</v>
+    <row r="60" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="C60" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="84" t="s">
-        <v>95</v>
+        <v>172</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="G60" s="76"/>
+        <v>174</v>
+      </c>
+      <c r="G60" s="62" t="s">
+        <v>175</v>
+      </c>
       <c r="I60" s="53"/>
       <c r="J60" s="54"/>
       <c r="L60" s="53"/>
       <c r="M60" s="54"/>
     </row>
-    <row r="61" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="53"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="54"/>
+    <row r="61" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="84"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="62" t="s">
+        <v>177</v>
+      </c>
       <c r="I61" s="53"/>
       <c r="J61" s="54"/>
       <c r="L61" s="53"/>
       <c r="M61" s="54"/>
     </row>
-    <row r="63" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="46"/>
-    </row>
-    <row r="64" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="70" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="83" t="s">
+    <row r="62" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="82"/>
+      <c r="E62" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="I62" s="53"/>
+      <c r="J62" s="54"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="54"/>
+    </row>
+    <row r="63" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="82"/>
+      <c r="E63" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="G63" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="I63" s="53"/>
+      <c r="J63" s="54"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="54"/>
+    </row>
+    <row r="64" spans="2:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="84"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="54"/>
+    </row>
+    <row r="65" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="84"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="76"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="54"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="54"/>
+    </row>
+    <row r="66" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="84"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="76"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="54"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="54"/>
+    </row>
+    <row r="67" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="80"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="54"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="54"/>
+    </row>
+    <row r="68" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="80"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="54"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="54"/>
+    </row>
+    <row r="69" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="76"/>
+      <c r="E69" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="76"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="54"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="54"/>
+    </row>
+    <row r="70" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="76"/>
+      <c r="E70" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="76"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="54"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="54"/>
+    </row>
+    <row r="71" spans="1:13" s="34" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="53"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="54"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="54"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="54"/>
+    </row>
+    <row r="73" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="46"/>
+    </row>
+    <row r="74" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="80" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="83" t="s">
+      <c r="F80" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="I80" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I75" s="1" t="s">
+    <row r="85" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I85" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+    <row r="86" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="9" t="s">
+    <row r="90" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+    <row r="91" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+    <row r="92" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="93" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
